--- a/Income/AVY_inc.xlsx
+++ b/Income/AVY_inc.xlsx
@@ -2172,16 +2172,16 @@
         <v>0.2758</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.272</v>
+        <v>0.2719</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.2689</v>
+        <v>0.2688</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.2728</v>
+        <v>0.2727</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.2694</v>
+        <v>0.2693</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.2676</v>
@@ -2432,10 +2432,10 @@
         <v>0.0927</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.1013</v>
+        <v>0.1014</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.0352</v>
+        <v>0.0353</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.0243</v>
@@ -2553,16 +2553,16 @@
         <v>0.0799</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.0782</v>
+        <v>0.0781</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.0769</v>
+        <v>0.0768</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>0.0829</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.043</v>
+        <v>0.0429</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.0337</v>
@@ -4221,16 +4221,16 @@
         <v>0.1533</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.1481</v>
+        <v>0.1436</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.1423</v>
+        <v>0.1378</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.1426</v>
+        <v>0.1383</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.1386</v>
+        <v>0.1343</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0.1363</v>
